--- a/biology/Biologie cellulaire et moléculaire/Cellule_de_la_granulosa/Cellule_de_la_granulosa.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_de_la_granulosa/Cellule_de_la_granulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La granulosa[1] est une couche de cellules folliculeuses granuleuses entourant l'ovocyte et la cavité liquidienne du follicule ovarien et responsable de la sécrétion de la progestérone durant la 2e moitié d'un cycle ovarien (corps jaune périodique) ou durant les quatre premiers mois de la grossesse (corps jaune gravidique), mais aussi des œstrogènes au cours du cycle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La granulosa est une couche de cellules folliculeuses granuleuses entourant l'ovocyte et la cavité liquidienne du follicule ovarien et responsable de la sécrétion de la progestérone durant la 2e moitié d'un cycle ovarien (corps jaune périodique) ou durant les quatre premiers mois de la grossesse (corps jaune gravidique), mais aussi des œstrogènes au cours du cycle.
 Au 14e jour du cycle, a lieu un pic de LH et de FSH (hormone gonadotrophine : sécrétées par l'hypophyse) : c'est l'ovulation, ce qui provoquera indirectement une forte hausse de la production d’œstrogène.
 Durant la première partie du cycle, les cellules de la granulosa se multiplient pour former plusieurs dizaines de couches autour de l'ovocyte (stratification de la granulosa). Par la production de glycoaminoglycanes se créent dans leur épaisseur des cavités remplies de liquide folliculaire. Par confluence, elles donnent une cavité unique centrale, l'antrum, tandis que l'ovocyte entouré d'une seule couche cellulaire (future corona radiata) est rejeté en périphérie.
 Durant cette phase, la granulosa est séparée de la thèque interne par une lame basale (ou membrane de Slavjanski), et reste dépourvue de vascularisation. Elles vont alors, grâce à leur aromatase, pouvoir transformer les androgènes produits par la thèque interne en œstrogènes, en réponse à la sécrétion de FSH hypophysaire.
